--- a/projects/BigData/data/BigData.xlsx
+++ b/projects/BigData/data/BigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="12180"/>
+    <workbookView windowWidth="23025" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="phone_qqq" sheetId="1" r:id="rId1"/>
@@ -3434,6 +3434,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3494,13 +3501,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3555,6 +3555,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -3562,14 +3570,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3646,6 +3646,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3664,79 +3742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3748,7 +3772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3772,31 +3796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3815,12 +3821,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3956,53 +3956,53 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="8"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="8"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5"/>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5"/>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="4"/>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="8"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="4"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="8"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4446,7 +4446,7 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -12498,8 +12498,8 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>

--- a/projects/BigData/data/BigData.xlsx
+++ b/projects/BigData/data/BigData.xlsx
@@ -6,126 +6,127 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="901" visibility="visible" windowHeight="12480" windowWidth="23745"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phone_check" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phone_qqq" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_GR00100_V001" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_GR00200_V001" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00100_V001" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00200_V001" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00300_V001" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00300_V002" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00400_V001" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00400_V002" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00500_V001" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00500_V002" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00600_V001" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00600_V002" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00700_V001" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00800_V001" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_ZH00100_V001" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_GR00100_V001" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00100_V001" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00200_V001" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00300_V001" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00400_V001" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00500_V001" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00600_V001" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00700_V001" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_ZH00100_V001" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_ZH00200_V001" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00100_V001" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00200_V001" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00500_V001" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00600_V001" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00700_V001" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00800_V001" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00900_V001" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01000_V001" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01100_V001" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01200_V001" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01300_V001" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01400_V001" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01500_V001" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01600_V001" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01700_V001" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01800_V001" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01900_V001" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR02000_V001" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR02100_V001" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N006_GR00100_V001" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N006_GR00200_V001" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N009_ZH00100_V001" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N009_ZH00200_V001" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N009_ZH00300_V001" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N009_ZH00400_V001" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N012_GR00100_V001" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N013_ZH00100_V001" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N013_ZH00200_V001" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N013_ZH00500_V001" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N013_ZH00600_V001" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N015_GR00100_V001" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N015_QY00100_V001" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N016_GR00100_V001" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N017_QY00100_V001" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N017_QY00200_V001" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00100_V001" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00200_V001" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00300_V001" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00400_V001" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00500_V001" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00600_V001" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0010008_N001_QY00300" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0010009_N001_QY00400" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0010010_N001_QY00500" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0010013_N015_QY00100" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0020005_N017_QY00200" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030012_N009_ZH00101" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030014_N009_ZH00106" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030016_N009_ZH00201" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030018_N009_ZH00206" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030020_N000" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030021_N013_ZH00100" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030026_N009_ZH0302" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030027_N009_ZH0303" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030028_N009_ZH00401" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030029_N009_ZH00402" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030030_N009_ZH00403" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030031_N009_ZH0301" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0060001_N001_ZH00100" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0090001_N017_QY00100" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0110001" sheetId="88" state="visible" r:id="rId88"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0120001_N000" sheetId="89" state="visible" r:id="rId89"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0130001_N001_QY00800" sheetId="90" state="visible" r:id="rId90"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1010000_N003_GR00101" sheetId="91" state="visible" r:id="rId91"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1010003_N003_GR00101" sheetId="92" state="visible" r:id="rId92"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1019999_N004_GR00200" sheetId="93" state="visible" r:id="rId93"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020001_N002_ZH00100" sheetId="94" state="visible" r:id="rId94"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020002_N009_ZH00101" sheetId="95" state="visible" r:id="rId95"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020003_N009_ZH00201" sheetId="96" state="visible" r:id="rId96"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020004_N009_ZH00202" sheetId="97" state="visible" r:id="rId97"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020005_N009_ZH00206" sheetId="98" state="visible" r:id="rId98"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020006_N009_ZH00203" sheetId="99" state="visible" r:id="rId99"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020008_N003_GR00101" sheetId="100" state="visible" r:id="rId100"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020009_N009_ZH00107" sheetId="101" state="visible" r:id="rId101"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020010_N009_ZH00207" sheetId="102" state="visible" r:id="rId102"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020011_N009_ZH00208" sheetId="103" state="visible" r:id="rId103"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020012_N009_ZH00101" sheetId="104" state="visible" r:id="rId104"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020013_N009_ZH00102" sheetId="105" state="visible" r:id="rId105"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020014_N009_ZH00106" sheetId="106" state="visible" r:id="rId106"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020015_N009_ZH00103" sheetId="107" state="visible" r:id="rId107"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020016_N009_ZH00107" sheetId="108" state="visible" r:id="rId108"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020017_N009_ZH00108" sheetId="109" state="visible" r:id="rId109"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020018_N013_ZH00100" sheetId="110" state="visible" r:id="rId110"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020020_N013_ZH00600" sheetId="111" state="visible" r:id="rId111"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020021_N013_ZH00500" sheetId="112" state="visible" r:id="rId112"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1030001_N006_GR00200" sheetId="113" state="visible" r:id="rId113"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1040001_N001_GR00100" sheetId="114" state="visible" r:id="rId114"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1040002_N012_GR00100" sheetId="115" state="visible" r:id="rId115"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1040003_N001_GR00100" sheetId="116" state="visible" r:id="rId116"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1050001_N016_GR00100" sheetId="117" state="visible" r:id="rId117"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1050007_N003_GR00109" sheetId="118" state="visible" r:id="rId118"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1050012_N003_GR00106" sheetId="119" state="visible" r:id="rId119"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1050014_N004_GR00500" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exampleApi" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phone_check" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phone_qqq" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_GR00100_V001" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_GR00200_V001" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00100_V001" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00200_V001" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00300_V001" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00300_V002" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00400_V001" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00400_V002" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00500_V001" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00500_V002" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00600_V001" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00600_V002" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00700_V001" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_QY00800_V001" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N001_ZH00100_V001" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_GR00100_V001" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00100_V001" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00200_V001" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00300_V001" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00400_V001" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00500_V001" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00600_V001" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_QY00700_V001" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_ZH00100_V001" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N002_ZH00200_V001" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00100_V001" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00200_V001" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00500_V001" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00600_V001" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00700_V001" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00800_V001" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR00900_V001" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01000_V001" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01100_V001" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01200_V001" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01300_V001" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01400_V001" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01500_V001" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01600_V001" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01700_V001" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01800_V001" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR01900_V001" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR02000_V001" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N005_GR02100_V001" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N006_GR00100_V001" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N006_GR00200_V001" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N009_ZH00100_V001" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N009_ZH00200_V001" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N009_ZH00300_V001" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N009_ZH00400_V001" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N012_GR00100_V001" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N013_ZH00100_V001" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N013_ZH00200_V001" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N013_ZH00500_V001" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N013_ZH00600_V001" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N015_GR00100_V001" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N015_QY00100_V001" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N016_GR00100_V001" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N017_QY00100_V001" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N017_QY00200_V001" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00100_V001" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00200_V001" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00300_V001" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00400_V001" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00500_V001" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N019_QY00600_V001" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0010008_N001_QY00300" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0010009_N001_QY00400" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0010010_N001_QY00500" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0010013_N015_QY00100" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0020005_N017_QY00200" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030012_N009_ZH00101" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030014_N009_ZH00106" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030016_N009_ZH00201" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030018_N009_ZH00206" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030020_N000" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030021_N013_ZH00100" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030026_N009_ZH0302" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030027_N009_ZH0303" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030028_N009_ZH00401" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030029_N009_ZH00402" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030030_N009_ZH00403" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0030031_N009_ZH0301" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0060001_N001_ZH00100" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0090001_N017_QY00100" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0110001" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0120001_N000" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P0130001_N001_QY00800" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1010000_N003_GR00101" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1010003_N003_GR00101" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1019999_N004_GR00200" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020001_N002_ZH00100" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020002_N009_ZH00101" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020003_N009_ZH00201" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020004_N009_ZH00202" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020005_N009_ZH00206" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020006_N009_ZH00203" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020008_N003_GR00101" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020009_N009_ZH00107" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020010_N009_ZH00207" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020011_N009_ZH00208" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020012_N009_ZH00101" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020013_N009_ZH00102" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020014_N009_ZH00106" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020015_N009_ZH00103" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020016_N009_ZH00107" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020017_N009_ZH00108" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020018_N013_ZH00100" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020020_N013_ZH00600" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1020021_N013_ZH00500" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1030001_N006_GR00200" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1040001_N001_GR00100" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1040002_N012_GR00100" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1040003_N001_GR00100" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1050001_N016_GR00100" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1050007_N003_GR00109" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1050012_N003_GR00106" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1050014_N004_GR00500" sheetId="121" state="visible" r:id="rId121"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -395,7 +396,7 @@
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="47">
     <fill>
       <patternFill/>
     </fill>
@@ -648,6 +649,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF3030"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008FBC8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDAD00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098FB98"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -822,7 +843,7 @@
     <xf borderId="0" fillId="19" fontId="29" numFmtId="0"/>
     <xf borderId="0" fillId="25" fontId="27" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -959,6 +980,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="43" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="44" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="45" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="46" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1276,183 +1309,89 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="18.625" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <cols>
-    <col customWidth="1" max="16384" min="1" style="6" width="18.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="45" t="inlineStr">
+      <c r="B1" s="60" t="inlineStr">
         <is>
           <t>必填入参</t>
         </is>
       </c>
-      <c r="C1" s="46" t="inlineStr">
+      <c r="D1" s="61" t="inlineStr">
         <is>
           <t>选填入参</t>
         </is>
       </c>
-      <c r="D1" s="47" t="inlineStr">
+      <c r="F1" s="62" t="inlineStr">
         <is>
           <t>响应断言</t>
         </is>
       </c>
-      <c r="F1" s="48" t="inlineStr">
+      <c r="H1" s="63" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>CaseName</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>entInfo</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>appid</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>msg</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>key1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>key3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>key2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>key4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>exec</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="D3" s="52" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G3" s="58" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>全部入参正常-问问：单独</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>平安银行股份有限公司</t>
-        </is>
-      </c>
-      <c r="C4" s="52" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="D4" s="52" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G4" s="58" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>entInfo为空</t>
-        </is>
-      </c>
-      <c r="C5" s="52" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="D5" s="52" t="inlineStr">
-        <is>
-          <t>10099</t>
-        </is>
-      </c>
-      <c r="E5" s="50" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误，args中参数entInfo</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" s="59" t="inlineStr">
-        <is>
-          <t>assert '10099' == '1004'
-  - 1004
-  + 10099</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1464,93 +1403,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
-    <col customWidth="1" max="2" min="2" style="6" width="21.875"/>
-    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
-    <col customWidth="1" max="4" min="4" style="6" width="5.5"/>
-    <col customWidth="1" max="5" min="5" style="6" width="23.5"/>
-    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
-    <col customWidth="1" max="7" min="7" style="6" width="16.5"/>
-    <col customWidth="1" max="8" min="8" style="6" width="37.5"/>
-    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
+    <col customWidth="1" max="1" min="1" width="7.5"/>
+    <col customWidth="1" max="2" min="2" width="21.375"/>
+    <col customWidth="1" max="3" min="3" width="8.5"/>
+    <col customWidth="1" max="4" min="4" width="5.5"/>
+    <col customWidth="1" max="5" min="5" width="23.5"/>
+    <col customWidth="1" max="6" min="6" width="5.5"/>
+    <col customWidth="1" max="7" min="7" width="16.5"/>
+    <col customWidth="1" max="8" min="8" width="27.625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>interfaceName is N001_QY00400_V002</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>interfaceName is N001_QY00400_V001</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>request parmas</t>
         </is>
       </c>
-      <c r="C2" s="39" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>response assert</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>必填项</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>caseNo</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>entInfo</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>srcCode</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>srcMsg</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>exec</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>information</t>
         </is>
@@ -1587,32 +1525,39 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>fail | CaseN001Qy00400V002 | test_ddt'0000' != 'None'</t>
+          <t>ok | 测试通过！</t>
         </is>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>参数正确，全字段响应，预期成功</t>
+          <t>参数为企业名称，预期成功</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>2</v>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>91440300192185379H</t>
+        </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>传入参数为空或格式错误</t>
+          <t>查询成功</t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
@@ -1622,12 +1567,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>fail | CaseN001Qy00400V002 | test_ddt'1004' != 'None'</t>
+          <t>ok | 测试通过！</t>
         </is>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>非空验证，参数entInfo为空，预期失败</t>
+          <t>参数为信用代码，预期成功</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1584,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>310000000136656</t>
+          <t>440301103098545</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
@@ -1664,12 +1609,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>fail | CaseN001Qy00400V002 | test_ddt'0000' != 'None'</t>
+          <t>fail | CaseN001Qy00400V001 | test_ddt'0000' != 'None'</t>
         </is>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>工商注册号，成功</t>
+          <t>参数为工商注册号，预期成功</t>
         </is>
       </c>
     </row>
@@ -1679,10 +1624,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>91310000324360627T</t>
-        </is>
+      <c r="B8" s="6" t="n">
+        <v>192185379</v>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
@@ -1706,12 +1649,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>fail | CaseN001Qy00400V002 | test_ddt'0000' != 'None'</t>
+          <t>ok | 测试通过！</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>统一信用代码，成功</t>
+          <t>参数为机构代码，预期成功</t>
         </is>
       </c>
     </row>
@@ -1748,28 +1691,322 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>fail | CaseN001Qy00400V002 | test_ddt'0001' != 'None'</t>
+          <t>ok | 测试通过！</t>
         </is>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
           <t>查询无记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>59395</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="7.5"/>
+    <col customWidth="1" max="2" min="2" width="12.75"/>
+    <col customWidth="1" max="4" min="3" width="11.625"/>
+    <col customWidth="1" max="5" min="5" width="16.125"/>
+    <col customWidth="1" max="6" min="6" width="5.5"/>
+    <col customWidth="1" max="7" min="7" width="16.5"/>
+    <col customWidth="1" max="8" min="8" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>interfaceName is P1020006_N009_ZH00203</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>resultCode</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>resultDesc</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P1020006Status</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23132131231</v>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>查询成功有数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None123456</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>参数正确，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>E1000</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>查询参数校验不通过,未提供有效查询参数值</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>入参为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2065,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2467,7 +2704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2687,7 +2924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2909,7 +3146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3338,7 +3575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3749,7 +3986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4169,7 +4406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4588,7 +4825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5007,7 +5244,318 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
+    <col customWidth="1" max="2" min="2" style="6" width="21.875"/>
+    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
+    <col customWidth="1" max="4" min="4" style="6" width="5.5"/>
+    <col customWidth="1" max="5" min="5" style="6" width="23.5"/>
+    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
+    <col customWidth="1" max="7" min="7" style="6" width="16.5"/>
+    <col customWidth="1" max="8" min="8" style="6" width="37.5"/>
+    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>interfaceName is N001_QY00400_V002</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="C2" s="39" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>entInfo</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>平安银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00400V002 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>参数正确，全字段响应，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00400V002 | test_ddt'1004' != 'None'</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>非空验证，参数entInfo为空，预期失败</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>310000000136656</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00400V002 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>工商注册号，成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>91310000324360627T</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00400V002 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>统一信用代码，成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00400V002 | test_ddt'0001' != 'None'</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5426,319 +5974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="7.5"/>
-    <col customWidth="1" max="2" min="2" width="21.375"/>
-    <col customWidth="1" max="3" min="3" width="8.5"/>
-    <col customWidth="1" max="4" min="4" width="5.5"/>
-    <col customWidth="1" max="5" min="5" width="23.5"/>
-    <col customWidth="1" max="6" min="6" width="5.5"/>
-    <col customWidth="1" max="7" min="7" width="18.25"/>
-    <col customWidth="1" max="8" min="8" width="27.625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>interfaceName is N001_QY00500_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>平安银行股份有限公司</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>参数为企业名称，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>440301103098545</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>参数为工商注册号，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>59395</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6104,7 +6340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6574,7 +6810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6930,7 +7166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7259,7 +7495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7604,7 +7840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7930,7 +8166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8297,7 +8533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9049,7 +9285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9398,7 +9634,319 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="7.5"/>
+    <col customWidth="1" max="2" min="2" width="21.375"/>
+    <col customWidth="1" max="3" min="3" width="8.5"/>
+    <col customWidth="1" max="4" min="4" width="5.5"/>
+    <col customWidth="1" max="5" min="5" width="23.5"/>
+    <col customWidth="1" max="6" min="6" width="5.5"/>
+    <col customWidth="1" max="7" min="7" width="18.25"/>
+    <col customWidth="1" max="8" min="8" width="27.625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>interfaceName is N001_QY00500_V001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>平安银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>参数为企业名称，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>440301103098545</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>参数为工商注册号，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>59395</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9825,7 +10373,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="7.5"/>
+    <col customWidth="1" max="2" min="2" width="20.5"/>
+    <col customWidth="1" max="3" min="3" width="9.5"/>
+    <col customWidth="1" max="6" min="4" width="12.75"/>
+    <col customWidth="1" max="7" min="7" width="16.125"/>
+    <col customWidth="1" max="8" min="8" width="5.5"/>
+    <col customWidth="1" max="9" min="9" width="57.125"/>
+    <col customWidth="1" max="10" min="10" width="15.125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>interfaceName is P1050014_N004_GR00500</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idNo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>persName</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cellNo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>resultCode1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>resultCode2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>P1050014Status</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>410105198206021027</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>张静</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>18930705245</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>fail | CaseP1050014N004Gr00500 | test_ddt'00000' != 'E1014'</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>查询结果有数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>410105198206021027</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>18930705245</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>fail | CaseP1050014N004Gr00500 | test_ddt'00000' != 'E1014'</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>查询结果无数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>张静</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>18930705245</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>E1000</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>E1016</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>fail | CaseP1050014N004Gr00500 | test_ddt'E1000' != 'E1014'</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>idNo为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>410105198206021027</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>18930705245</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>E1000</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>E1016</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>fail | CaseP1050014N004Gr00500 | test_ddt'E1000' != 'E1014'</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>persName为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>410105198206021027</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>张静</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>E1000</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>E1016</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>fail | CaseP1050014N004Gr00500 | test_ddt'E1000' != 'E1014'</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>cellNo为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10053,361 +10955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="7.5"/>
-    <col customWidth="1" max="2" min="2" width="20.5"/>
-    <col customWidth="1" max="3" min="3" width="9.5"/>
-    <col customWidth="1" max="6" min="4" width="12.75"/>
-    <col customWidth="1" max="7" min="7" width="16.125"/>
-    <col customWidth="1" max="8" min="8" width="5.5"/>
-    <col customWidth="1" max="9" min="9" width="57.125"/>
-    <col customWidth="1" max="10" min="10" width="15.125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>interfaceName is P1050014_N004_GR00500</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>idNo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>persName</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>cellNo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>resultCode1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>resultCode2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>P1050014Status</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>410105198206021027</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>张静</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>18930705245</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t>fail | CaseP1050014N004Gr00500 | test_ddt'00000' != 'E1014'</t>
-        </is>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>查询结果有数据</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>410105198206021027</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>18930705245</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>fail | CaseP1050014N004Gr00500 | test_ddt'00000' != 'E1014'</t>
-        </is>
-      </c>
-      <c r="J6" s="6" t="inlineStr">
-        <is>
-          <t>查询结果无数据</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>张静</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>18930705245</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>E1000</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>E1016</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>fail | CaseP1050014N004Gr00500 | test_ddt'E1000' != 'E1014'</t>
-        </is>
-      </c>
-      <c r="J7" s="6" t="inlineStr">
-        <is>
-          <t>idNo为空</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>410105198206021027</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>18930705245</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>E1000</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>E1016</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>fail | CaseP1050014N004Gr00500 | test_ddt'E1000' != 'E1014'</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>persName为空</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>410105198206021027</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>张静</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>E1000</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>E1016</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>fail | CaseP1050014N004Gr00500 | test_ddt'E1000' != 'E1014'</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="inlineStr">
-        <is>
-          <t>cellNo为空</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10718,7 +11266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11024,7 +11572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11587,7 +12135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11875,7 +12423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12174,7 +12722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12467,7 +13015,195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="18.625" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col customWidth="1" max="16384" min="1" style="6" width="18.625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="45" t="inlineStr">
+        <is>
+          <t>必填入参</t>
+        </is>
+      </c>
+      <c r="C1" s="46" t="inlineStr">
+        <is>
+          <t>选填入参</t>
+        </is>
+      </c>
+      <c r="D1" s="47" t="inlineStr">
+        <is>
+          <t>响应断言</t>
+        </is>
+      </c>
+      <c r="F1" s="48" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>CaseName</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>entInfo</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="D3" s="52" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" s="58" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>全部入参正常-问问：单独</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>平安银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C4" s="52" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="D4" s="52" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="58" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>entInfo为空</t>
+        </is>
+      </c>
+      <c r="C5" s="52" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="D5" s="52" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="E5" s="50" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误，args中参数entInfo</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" s="59" t="inlineStr">
+        <is>
+          <t>assert '10099' == '1004'
+  - 1004
+  + 10099</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13049,101 +13785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="41" t="inlineStr">
-        <is>
-          <t>必填入参</t>
-        </is>
-      </c>
-      <c r="D1" s="42" t="inlineStr">
-        <is>
-          <t>选填入参</t>
-        </is>
-      </c>
-      <c r="F1" s="43" t="inlineStr">
-        <is>
-          <t>响应断言</t>
-        </is>
-      </c>
-      <c r="H1" s="44" t="inlineStr">
-        <is>
-          <t>测试结果</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CaseName</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>key1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>key3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>key2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>key4</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13438,7 +14080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13708,7 +14350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13978,7 +14620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14241,7 +14883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14512,7 +15154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14846,7 +15488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15138,7 +15780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15460,7 +16102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15749,7 +16391,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="41" t="inlineStr">
+        <is>
+          <t>必填入参</t>
+        </is>
+      </c>
+      <c r="D1" s="42" t="inlineStr">
+        <is>
+          <t>选填入参</t>
+        </is>
+      </c>
+      <c r="F1" s="43" t="inlineStr">
+        <is>
+          <t>响应断言</t>
+        </is>
+      </c>
+      <c r="H1" s="44" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CaseName</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>key1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>key3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>key2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>key4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16065,539 +16801,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
-    <col customWidth="1" max="2" min="2" style="6" width="27.625"/>
-    <col customWidth="1" max="3" min="3" style="6" width="11.625"/>
-    <col customWidth="1" max="4" min="4" style="6" width="8.5"/>
-    <col customWidth="1" max="5" min="5" style="6" width="5.5"/>
-    <col customWidth="1" max="6" min="6" style="6" width="21.375"/>
-    <col customWidth="1" max="7" min="7" style="6" width="5.5"/>
-    <col customWidth="1" max="8" min="8" style="6" width="29.125"/>
-    <col customWidth="1" max="9" min="9" style="6" width="27.625"/>
-    <col customWidth="1" max="16384" min="10" style="6" width="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>interfaceName is N001_GR00100_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>entInfo</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>personName</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="5">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>平安银行股份有限公司</t>
-        </is>
-      </c>
-      <c r="C5" s="40" t="inlineStr">
-        <is>
-          <t>蒋益雷</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t>参数正确，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="40" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="C6" s="40" t="inlineStr">
-        <is>
-          <t>蒋益雷</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>该企业中未关联此姓名</t>
-        </is>
-      </c>
-      <c r="C7" s="40" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>该企业中未关联此姓名</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B8" s="40" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="C8" s="40" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>59395</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B9" s="40" t="n"/>
-      <c r="C9" s="40" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>entInfo为空</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B10" s="40" t="inlineStr">
-        <is>
-          <t>证通股份有限公司</t>
-        </is>
-      </c>
-      <c r="C10" s="40" t="n"/>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>personName为空</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>interfaceName is N005_GR00500_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>step</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>identityNumber</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>tradeNo1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>personName</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>identityType</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>authorizationID</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>cellPhoneNumber</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>参数正确，预期成功</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B3:H3"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -16615,7 +16818,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR00600_V001</t>
+          <t>interfaceName is N005_GR00500_V001</t>
         </is>
       </c>
     </row>
@@ -16743,6 +16946,150 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>interfaceName is N005_GR00600_V001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>identityNumber</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tradeNo1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>personName</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>identityType</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>authorizationID</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>cellPhoneNumber</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>参数正确，预期成功</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17173,7 +17520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17597,150 +17944,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>interfaceName is N005_GR00900_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>step</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>identityNumber</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>tradeNo1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>personName</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>identityType</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>authorizationID</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>cellPhoneNumber</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>参数正确，预期成功</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B3:H3"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -17758,7 +17961,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR01000_V001</t>
+          <t>interfaceName is N005_GR00900_V001</t>
         </is>
       </c>
     </row>
@@ -17902,7 +18105,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR01100_V001</t>
+          <t>interfaceName is N005_GR01000_V001</t>
         </is>
       </c>
     </row>
@@ -18035,6 +18238,150 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>interfaceName is N005_GR01100_V001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>identityNumber</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tradeNo1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>personName</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>identityType</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>authorizationID</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>cellPhoneNumber</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>参数正确，预期成功</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18158,7 +18505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18302,165 +18649,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>interfaceName is N005_GR01400_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>personName</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>identityType</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>identityNumber</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>authorizationID</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>参数正确，预期成功</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
-    <col customWidth="1" max="2" min="2" style="6" width="23.25"/>
+    <col customWidth="1" max="2" min="2" style="6" width="27.625"/>
     <col customWidth="1" max="3" min="3" style="6" width="11.625"/>
     <col customWidth="1" max="4" min="4" style="6" width="8.5"/>
     <col customWidth="1" max="5" min="5" style="6" width="5.5"/>
-    <col customWidth="1" max="6" min="6" style="6" width="11"/>
+    <col customWidth="1" max="6" min="6" style="6" width="21.375"/>
     <col customWidth="1" max="7" min="7" style="6" width="5.5"/>
-    <col customWidth="1" max="8" min="8" style="6" width="16.5"/>
-    <col customWidth="1" max="9" min="9" style="6" width="19.25"/>
+    <col customWidth="1" max="8" min="8" style="6" width="29.125"/>
+    <col customWidth="1" max="9" min="9" style="6" width="27.625"/>
     <col customWidth="1" max="16384" min="10" style="6" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>interfaceName is N001_GR00200_V001</t>
+          <t>interfaceName is N001_GR00100_V001</t>
         </is>
       </c>
     </row>
@@ -18487,11 +18705,6 @@
           <t>必填项</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>非必填项</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -18501,7 +18714,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>cid</t>
+          <t>entInfo</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
@@ -18546,10 +18759,10 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>330382198710074076</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
+          <t>平安银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C5" s="40" t="inlineStr">
         <is>
           <t>蒋益雷</t>
         </is>
@@ -18576,7 +18789,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>fail | CaseN001Gr00200V001 | test_ddt'0000' != 'None'</t>
+          <t>ok | 测试通过！</t>
         </is>
       </c>
       <c r="I5" s="6" t="inlineStr">
@@ -18585,18 +18798,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="1" ht="15.75" r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>330382198710074000</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="B6" s="40" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="C6" s="40" t="inlineStr">
         <is>
           <t>蒋益雷</t>
         </is>
@@ -18623,24 +18836,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>fail | CaseN001Gr00200V001 | test_ddt'0001' != 'None'</t>
+          <t>ok | 测试通过！</t>
         </is>
       </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
-          <t>查询成功无结果</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+          <t>查询无记录</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>330382198710074076</t>
+      <c r="B7" s="40" t="inlineStr">
+        <is>
+          <t>该企业中未关联此姓名</t>
+        </is>
+      </c>
+      <c r="C7" s="40" t="inlineStr">
+        <is>
+          <t>测试</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
@@ -18650,7 +18868,7 @@
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
@@ -18665,63 +18883,155 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>fail | CaseN001Gr00200V001 | test_ddt'0000' != 'None'</t>
+          <t>ok | 测试通过！</t>
         </is>
       </c>
       <c r="I7" s="6" t="inlineStr">
         <is>
+          <t>该企业中未关联此姓名</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" s="40" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="C8" s="40" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>59395</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" s="40" t="n"/>
+      <c r="C9" s="40" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>entInfo为空</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B10" s="40" t="inlineStr">
+        <is>
+          <t>证通股份有限公司</t>
+        </is>
+      </c>
+      <c r="C10" s="40" t="n"/>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
           <t>personName为空</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>蒋益雷</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>fail | CaseN001Gr00200V001 | test_ddt'1004' != 'None'</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>cid为空</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -18745,7 +19055,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR01500_V001</t>
+          <t>interfaceName is N005_GR01400_V001</t>
         </is>
       </c>
     </row>
@@ -18863,7 +19173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
@@ -18874,7 +19184,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR01600_V001</t>
+          <t>interfaceName is N005_GR01500_V001</t>
         </is>
       </c>
     </row>
@@ -18884,12 +19194,12 @@
           <t>request parmas</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>response assert</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -18925,40 +19235,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>cardNumber</t>
+          <t>authorizationID</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>authorizationID</t>
+          <t>srcCode</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>srcCode</t>
+          <t>code</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>srcMsg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>srcMsg</t>
+          <t>exec</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>exec</t>
+          <t>result</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>information</t>
         </is>
@@ -18968,12 +19273,12 @@
       <c r="A5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>参数正确，预期成功</t>
         </is>
@@ -18982,10 +19287,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -19008,7 +19313,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR01700_V001</t>
+          <t>interfaceName is N005_GR01600_V001</t>
         </is>
       </c>
     </row>
@@ -19142,7 +19447,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR01800_V001</t>
+          <t>interfaceName is N005_GR01700_V001</t>
         </is>
       </c>
     </row>
@@ -19276,7 +19581,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR01900_V001</t>
+          <t>interfaceName is N005_GR01800_V001</t>
         </is>
       </c>
     </row>
@@ -19410,7 +19715,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is N005_GR02000_V001</t>
+          <t>interfaceName is N005_GR01900_V001</t>
         </is>
       </c>
     </row>
@@ -19533,6 +19838,140 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>interfaceName is N005_GR02000_V001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>personName</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>identityType</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>identityNumber</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cardNumber</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>authorizationID</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>参数正确，预期成功</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19671,7 +20110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19939,7 +20378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20144,7 +20583,304 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
+    <col customWidth="1" max="2" min="2" style="6" width="23.25"/>
+    <col customWidth="1" max="3" min="3" style="6" width="11.625"/>
+    <col customWidth="1" max="4" min="4" style="6" width="8.5"/>
+    <col customWidth="1" max="5" min="5" style="6" width="5.5"/>
+    <col customWidth="1" max="6" min="6" style="6" width="11"/>
+    <col customWidth="1" max="7" min="7" style="6" width="5.5"/>
+    <col customWidth="1" max="8" min="8" style="6" width="16.5"/>
+    <col customWidth="1" max="9" min="9" style="6" width="19.25"/>
+    <col customWidth="1" max="16384" min="10" style="6" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>interfaceName is N001_GR00200_V001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>非必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>cid</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>personName</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>330382198710074076</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>蒋益雷</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Gr00200V001 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>参数正确，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>330382198710074000</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>蒋益雷</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Gr00200V001 | test_ddt'0001' != 'None'</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>查询成功无结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>330382198710074076</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Gr00200V001 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>personName为空</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>蒋益雷</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Gr00200V001 | test_ddt'1004' != 'None'</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>cid为空</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21335,235 +22071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
-    <col customWidth="1" max="2" min="2" style="6" width="21.375"/>
-    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
-    <col customWidth="1" max="4" min="4" style="6" width="6.5"/>
-    <col customWidth="1" max="5" min="5" style="6" width="9"/>
-    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
-    <col customWidth="1" max="7" min="7" style="6" width="16.5"/>
-    <col customWidth="1" max="8" min="8" style="6" width="19.25"/>
-    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>interfaceName is N001_QY00100_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>平安银行股份有限公司</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>参数正确，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22306,7 +22814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23116,7 +23624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23464,7 +23972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23692,7 +24200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23968,7 +24476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24248,7 +24756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24554,7 +25062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24839,7 +25347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25067,7 +25575,235 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
+    <col customWidth="1" max="2" min="2" style="6" width="21.375"/>
+    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
+    <col customWidth="1" max="4" min="4" style="6" width="6.5"/>
+    <col customWidth="1" max="5" min="5" style="6" width="9"/>
+    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
+    <col customWidth="1" max="7" min="7" style="6" width="16.5"/>
+    <col customWidth="1" max="8" min="8" style="6" width="19.25"/>
+    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>interfaceName is N001_QY00100_V001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>平安银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>参数正确，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25425,320 +26161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
-    <col customWidth="1" max="2" min="2" style="6" width="21.375"/>
-    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
-    <col customWidth="1" max="4" min="4" style="6" width="6.5"/>
-    <col customWidth="1" max="5" min="5" style="6" width="9"/>
-    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
-    <col customWidth="1" max="7" min="7" style="6" width="16.5"/>
-    <col customWidth="1" max="8" min="8" style="6" width="19.25"/>
-    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>interfaceName is N001_QY00200_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>entInfo</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>平安银行股份有限公司</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>参数为企业名称，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>440301103098545</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>fail | CaseN001Qy00200V001 | test_ddt'0000' != 'None'</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>参数为工商注册号，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>59395</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26400,7 +26823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26620,7 +27043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26848,7 +27271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27313,7 +27736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28048,7 +28471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28806,7 +29229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29186,7 +29609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29559,7 +29982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30388,7 +30811,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
+    <col customWidth="1" max="2" min="2" style="6" width="21.375"/>
+    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
+    <col customWidth="1" max="4" min="4" style="6" width="6.5"/>
+    <col customWidth="1" max="5" min="5" style="6" width="9"/>
+    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
+    <col customWidth="1" max="7" min="7" style="6" width="16.5"/>
+    <col customWidth="1" max="8" min="8" style="6" width="19.25"/>
+    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>interfaceName is N001_QY00200_V001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>entInfo</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>平安银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>参数为企业名称，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>440301103098545</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00200V001 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>参数为工商注册号，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>59395</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30685,404 +31421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
-    <col customWidth="1" max="2" min="2" style="6" width="21.375"/>
-    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
-    <col customWidth="1" max="4" min="4" style="6" width="6.5"/>
-    <col customWidth="1" max="5" min="5" style="6" width="23.5"/>
-    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
-    <col customWidth="1" max="7" min="7" style="6" width="19.625"/>
-    <col customWidth="1" max="8" min="8" style="6" width="27.625"/>
-    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>interfaceName is N001_QY00300_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>entInfo</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>平安银行股份有限公司</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>参数为企业名称，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>91440300192185379H</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>参数为信用代码，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>440301103098545</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>参数为工商注册号，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>192185379</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>参数为机构代码，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B9" s="38" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>59395</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31390,7 +31729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31636,7 +31975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31888,7 +32227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32110,7 +32449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32433,7 +32772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32753,7 +33092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32972,7 +33311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33187,7 +33526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33409,7 +33748,404 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
+    <col customWidth="1" max="2" min="2" style="6" width="21.375"/>
+    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
+    <col customWidth="1" max="4" min="4" style="6" width="6.5"/>
+    <col customWidth="1" max="5" min="5" style="6" width="23.5"/>
+    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
+    <col customWidth="1" max="7" min="7" style="6" width="19.625"/>
+    <col customWidth="1" max="8" min="8" style="6" width="27.625"/>
+    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>interfaceName is N001_QY00300_V001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>entInfo</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>平安银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>参数为企业名称，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>91440300192185379H</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>参数为信用代码，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>440301103098545</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>参数为工商注册号，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>192185379</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>参数为机构代码，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>59395</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>人为异常码</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33775,326 +34511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
-    <col customWidth="1" max="2" min="2" style="6" width="21.375"/>
-    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
-    <col customWidth="1" max="4" min="4" style="6" width="6.5"/>
-    <col customWidth="1" max="5" min="5" style="6" width="9"/>
-    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
-    <col customWidth="1" max="7" min="7" style="6" width="16.5"/>
-    <col customWidth="1" max="8" min="8" style="6" width="19.25"/>
-    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>interfaceName is N001_QY00300_V002</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>entInfo</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>平安银行股份有限公司</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>fail | CaseN001Qy00300V002 | test_ddt'0000' != 'None'</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>参数正确，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>fail | CaseN001Qy00300V002 | test_ddt'0001' != 'None'</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>fail | CaseN001Qy00300V002 | test_ddt'1004' != 'None'</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>91440300192185379H</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>入参为信用代码</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>440301103098545</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>fail | CaseN001Qy00300V002 | test_ddt'0000' != 'None'</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>入参为工商注册号</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>fail | CaseN001Qy00300V002 | test_ddt'0000' != 'None'</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34424,7 +34841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34754,7 +35171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34975,7 +35392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35197,7 +35614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35420,7 +35837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35746,7 +36163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36169,7 +36586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36391,7 +36808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36817,7 +37234,326 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="6" width="7.5"/>
+    <col customWidth="1" max="2" min="2" style="6" width="21.375"/>
+    <col customWidth="1" max="3" min="3" style="6" width="8.5"/>
+    <col customWidth="1" max="4" min="4" style="6" width="6.5"/>
+    <col customWidth="1" max="5" min="5" style="6" width="9"/>
+    <col customWidth="1" max="6" min="6" style="6" width="5.5"/>
+    <col customWidth="1" max="7" min="7" style="6" width="16.5"/>
+    <col customWidth="1" max="8" min="8" style="6" width="19.25"/>
+    <col customWidth="1" max="16384" min="9" style="6" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>interfaceName is N001_QY00300_V002</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>request parmas</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>response assert</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>必填项</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>caseNo</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>entInfo</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>srcCode</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>srcMsg</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>exec</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>平安银行股份有限公司</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00300V002 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>参数正确，预期成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00300V002 | test_ddt'0001' != 'None'</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>查询无记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00300V002 | test_ddt'1004' != 'None'</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>传入参数为空或格式错误</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>91440300192185379H</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ok | 测试通过！</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>入参为信用代码</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>440301103098545</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>查询成功</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00300V002 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>入参为工商注册号</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>fail | CaseN001Qy00300V002 | test_ddt'0000' != 'None'</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37943,401 +38679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="7.5"/>
-    <col customWidth="1" max="2" min="2" width="21.375"/>
-    <col customWidth="1" max="3" min="3" width="8.5"/>
-    <col customWidth="1" max="4" min="4" width="5.5"/>
-    <col customWidth="1" max="5" min="5" width="23.5"/>
-    <col customWidth="1" max="6" min="6" width="5.5"/>
-    <col customWidth="1" max="7" min="7" width="16.5"/>
-    <col customWidth="1" max="8" min="8" width="27.625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>interfaceName is N001_QY00400_V001</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>entInfo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>srcCode</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>srcMsg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>平安银行股份有限公司</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>参数为企业名称，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>91440300192185379H</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>参数为信用代码，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>440301103098545</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>fail | CaseN001Qy00400V001 | test_ddt'0000' != 'None'</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>参数为工商注册号，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>192185379</v>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>0003</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>查询成功</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>参数为机构代码，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>查询无记录</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>传入参数为空或格式错误</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>59395</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>人为异常码</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -38621,7 +38963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39047,7 +39389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39343,7 +39685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39697,7 +40039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40014,7 +40356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40416,7 +40758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40612,215 +40954,6 @@
       <c r="H7" t="inlineStr">
         <is>
           <t>id为空</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
-  <cols>
-    <col customWidth="1" max="2" min="2" width="10.5"/>
-    <col customWidth="1" max="4" min="3" width="11.625"/>
-    <col customWidth="1" max="7" min="7" width="16.5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>interfaceName is P1020004_N009_ZH00202</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>request parmas</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>response assert</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>必填项</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>caseNo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>resultCode</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>resultDesc</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>P1020004Status</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>exec</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>852214785</v>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>查询成功有数据</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>None123456</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>参数正确，预期成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>E1000</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>查询参数校验不通过,未提供有效查询参数值</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ok | 测试通过！</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>入参为空</t>
         </is>
       </c>
     </row>
@@ -40849,19 +40982,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.5"/>
-    <col customWidth="1" max="3" min="2" width="11.625"/>
-    <col customWidth="1" max="4" min="4" width="41.25"/>
-    <col customWidth="1" max="5" min="5" width="16.125"/>
-    <col customWidth="1" max="6" min="6" width="5.5"/>
+    <col customWidth="1" max="2" min="2" width="10.5"/>
+    <col customWidth="1" max="4" min="3" width="11.625"/>
     <col customWidth="1" max="7" min="7" width="16.5"/>
-    <col customWidth="1" max="8" min="8" width="19.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is P1020005_N009_ZH00206</t>
+          <t>interfaceName is P1020004_N009_ZH00202</t>
         </is>
       </c>
     </row>
@@ -40912,7 +41041,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>P1020005Status</t>
+          <t>P1020004Status</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -40936,7 +41065,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>123456</v>
+        <v>852214785</v>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
@@ -40948,10 +41077,8 @@
           <t>成功</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E5" t="n">
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -41059,14 +41186,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="7.5"/>
-    <col customWidth="1" max="2" min="2" width="12.75"/>
-    <col customWidth="1" max="4" min="3" width="11.625"/>
+    <col customWidth="1" max="3" min="2" width="11.625"/>
+    <col customWidth="1" max="4" min="4" width="41.25"/>
     <col customWidth="1" max="5" min="5" width="16.125"/>
     <col customWidth="1" max="6" min="6" width="5.5"/>
     <col customWidth="1" max="7" min="7" width="16.5"/>
@@ -41076,7 +41203,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>interfaceName is P1020006_N009_ZH00203</t>
+          <t>interfaceName is P1020005_N009_ZH00206</t>
         </is>
       </c>
     </row>
@@ -41127,7 +41254,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>P1020006Status</t>
+          <t>P1020005Status</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -41151,7 +41278,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>23132131231</v>
+        <v>123456</v>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>

--- a/projects/BigData/data/BigData.xlsx
+++ b/projects/BigData/data/BigData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="901" visibility="visible" windowHeight="12480" windowWidth="23745"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="901" visibility="visible" windowHeight="12750" windowWidth="24225"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="exampleApi" sheetId="1" state="visible" r:id="rId1"/>
@@ -248,6 +248,13 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -265,6 +272,44 @@
       <name val="等线"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -297,14 +342,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
@@ -319,34 +356,6 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -354,17 +363,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,7 +377,6 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -385,6 +384,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -396,7 +396,7 @@
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="43">
     <fill>
       <patternFill/>
     </fill>
@@ -465,7 +465,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,12 +549,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,55 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,31 +603,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,46 +639,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF3030"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FBC8F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDAD00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098FB98"/>
       </patternFill>
     </fill>
   </fills>
@@ -795,55 +775,55 @@
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="42"/>
-    <xf borderId="0" fillId="24" fontId="29" numFmtId="0"/>
-    <xf borderId="8" fillId="15" fontId="26" numFmtId="0"/>
+    <xf borderId="0" fillId="36" fontId="17" numFmtId="0"/>
+    <xf borderId="8" fillId="33" fontId="32" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="44"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="41"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="28" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="24" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="43"/>
-    <xf borderId="0" fillId="29" fontId="27" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0"/>
-    <xf borderId="5" fillId="14" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="27" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="21" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="27" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="23" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="27" numFmtId="0"/>
-    <xf borderId="4" fillId="13" fontId="20" numFmtId="0"/>
-    <xf borderId="8" fillId="13" fontId="34" numFmtId="0"/>
-    <xf borderId="2" fillId="12" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="36" fontId="27" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="35" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="22" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="33" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="30" numFmtId="0"/>
-    <xf borderId="0" fillId="39" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="27" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="35" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="38" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="42" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="0"/>
-    <xf borderId="0" fillId="34" fontId="27" numFmtId="0"/>
-    <xf borderId="0" fillId="37" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="41" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="33" fontId="27" numFmtId="0"/>
-    <xf borderId="0" fillId="40" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="27" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="27" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="27" numFmtId="0"/>
+    <xf borderId="5" fillId="25" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="38" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="27" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="25" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="22" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="25" numFmtId="0"/>
+    <xf borderId="4" fillId="24" fontId="26" numFmtId="0"/>
+    <xf borderId="8" fillId="24" fontId="35" numFmtId="0"/>
+    <xf borderId="2" fillId="16" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="35" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="25" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="34" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="28" numFmtId="0"/>
+    <xf borderId="0" fillId="34" fontId="33" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="31" numFmtId="0"/>
+    <xf borderId="0" fillId="42" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="41" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="40" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="39" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="37" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="25" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -980,18 +960,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="43" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="44" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="45" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="46" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1315,25 +1283,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="60" t="inlineStr">
+      <c r="B1" s="41" t="inlineStr">
         <is>
           <t>必填入参</t>
         </is>
       </c>
-      <c r="D1" s="61" t="inlineStr">
+      <c r="D1" s="42" t="inlineStr">
         <is>
           <t>选填入参</t>
         </is>
       </c>
-      <c r="F1" s="62" t="inlineStr">
+      <c r="F1" s="43" t="inlineStr">
         <is>
           <t>响应断言</t>
         </is>
       </c>
-      <c r="H1" s="63" t="inlineStr">
+      <c r="H1" s="44" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -13024,7 +12992,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="18.625" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -13189,8 +13157,8 @@
       <c r="G5" s="59" t="inlineStr">
         <is>
           <t>assert '10099' == '1004'
-  - 1004
-  + 10099</t>
+  - 10099
+  + 1004</t>
         </is>
       </c>
     </row>
